--- a/BoM/Generic/rcbus-ymf262-bom.xlsx
+++ b/BoM/Generic/rcbus-ymf262-bom.xlsx
@@ -134,7 +134,7 @@
     <t>6</t>
   </si>
   <si>
-    <t>C1 C3 C6 C7 C12</t>
+    <t>C1 C3 C6 C7 C12 C19</t>
   </si>
   <si>
     <t>0.1uF</t>
@@ -386,22 +386,22 @@
     <t>23</t>
   </si>
   <si>
-    <t>Crystal Clock Oscillator, DIP8-style metal package</t>
-  </si>
-  <si>
-    <t>CXO_DIP-8-14</t>
-  </si>
-  <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>14.318MHz</t>
-  </si>
-  <si>
-    <t>Oscillator_DIP-8-14</t>
-  </si>
-  <si>
-    <t>http://cdn-reichelt.de/documents/datenblatt/B400/OSZI.pdf</t>
+    <t>3.3V HCMOS SMD Crystal Clock Oscillator, Abracon</t>
+  </si>
+  <si>
+    <t>ASV-xxxMHz</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>SG-8002CA</t>
+  </si>
+  <si>
+    <t>Oscillator_SMD_Abracon_ASV-4Pin_7.0x5.1mm</t>
+  </si>
+  <si>
+    <t>http://www.abracon.com/Oscillators/ASV.pdf</t>
   </si>
   <si>
     <t>KiBot Bill of Materials</t>
@@ -443,7 +443,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>39 (35 SMD/ 4 THT)</t>
+    <t>40 (37 SMD/ 3 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -976,12 +976,12 @@
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="48.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="60.7109375" customWidth="1"/>
+    <col min="9" max="9" width="52.7109375" customWidth="1"/>
     <col min="10" max="10" width="21.7109375" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" customWidth="1"/>
@@ -1076,7 +1076,7 @@
         <v>144</v>
       </c>
       <c r="F6" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1399,7 +1399,7 @@
         <v>21</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>22</v>

--- a/BoM/Generic/rcbus-ymf262-bom.xlsx
+++ b/BoM/Generic/rcbus-ymf262-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="147">
   <si>
     <t>Row</t>
   </si>
@@ -143,247 +143,238 @@
     <t>7</t>
   </si>
   <si>
+    <t>C_Polarized_Small</t>
+  </si>
+  <si>
+    <t>C8 C15 C16</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>Polarized capacitor, small symbol</t>
   </si>
   <si>
-    <t>C_Polarized_Small</t>
-  </si>
-  <si>
-    <t>C15 C16</t>
-  </si>
-  <si>
-    <t>10uf</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>C4 C5</t>
   </si>
   <si>
-    <t>10uF</t>
-  </si>
-  <si>
     <t>C_1206_3216Metric</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>C8</t>
+    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
+  </si>
+  <si>
+    <t>AudioJack3_SwitchTR</t>
+  </si>
+  <si>
+    <t>CON1</t>
+  </si>
+  <si>
+    <t>SJ1-3523N</t>
+  </si>
+  <si>
+    <t>Headphone_Jack_3.5mm_5_pin</t>
+  </si>
+  <si>
+    <t>CP1-3523N-ND</t>
+  </si>
+  <si>
+    <t>Connectors, Interconnects</t>
+  </si>
+  <si>
+    <t>Barrel - Audio Connectors</t>
+  </si>
+  <si>
+    <t>https://www.cui.com/product/resource/digikeypdf/sj1-352xn_series.pdf</t>
+  </si>
+  <si>
+    <t>/product-detail/en/cui-inc/SJ1-3523N/CP1-3523N-ND/738689</t>
+  </si>
+  <si>
+    <t>CUI Inc.</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
-  </si>
-  <si>
-    <t>AudioJack3_SwitchTR</t>
-  </si>
-  <si>
-    <t>CON1</t>
-  </si>
-  <si>
-    <t>SJ1-3523N</t>
-  </si>
-  <si>
-    <t>Headphone_Jack_3.5mm_5_pin</t>
-  </si>
-  <si>
-    <t>CP1-3523N-ND</t>
-  </si>
-  <si>
-    <t>Connectors, Interconnects</t>
-  </si>
-  <si>
-    <t>Barrel - Audio Connectors</t>
-  </si>
-  <si>
-    <t>https://www.cui.com/product/resource/digikeypdf/sj1-352xn_series.pdf</t>
-  </si>
-  <si>
-    <t>/product-detail/en/cui-inc/SJ1-3523N/CP1-3523N-ND/738689</t>
-  </si>
-  <si>
-    <t>CUI Inc.</t>
+    <t>Generic connector, double row, 02x06, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x06_Odd_Even</t>
+  </si>
+  <si>
+    <t>JP1</t>
+  </si>
+  <si>
+    <t>BASE ADDRESS</t>
+  </si>
+  <si>
+    <t>PinHeader_2x06_P2.54mm_Vertical</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>Generic connector, double row, 02x06, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x06_Odd_Even</t>
-  </si>
-  <si>
-    <t>JP1</t>
-  </si>
-  <si>
-    <t>BASE ADDRESS</t>
-  </si>
-  <si>
-    <t>PinHeader_2x06_P2.54mm_Vertical</t>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>33uH</t>
+  </si>
+  <si>
+    <t>L_0603_1608Metric_Pad1.05x0.95mm_HandSolder</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>Inductor</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>33uH</t>
-  </si>
-  <si>
-    <t>L_0603_1608Metric_Pad1.05x0.95mm_HandSolder</t>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>BLM18PG221SN1D</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>BLM18PG221SN1D</t>
+    <t>Generic connector, single row, 01x39, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_01x39</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>RC2014 BUS</t>
+  </si>
+  <si>
+    <t>PinHeader_1x39_P2.54mm_Vertical</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>Generic connector, single row, 01x39, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_01x39</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>RC2014 BUS</t>
-  </si>
-  <si>
-    <t>PinHeader_1x39_P2.54mm_Vertical</t>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>R_0603_1608Metric_Pad0.98x0.95mm_HandSolder</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>R_0603_1608Metric_Pad0.98x0.95mm_HandSolder</t>
+    <t>R10 R11</t>
+  </si>
+  <si>
+    <t>1K</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>R10 R11</t>
-  </si>
-  <si>
-    <t>1K</t>
+    <t>Resistor, small symbol</t>
+  </si>
+  <si>
+    <t>R_Small</t>
+  </si>
+  <si>
+    <t>R1 R2 R3 R4 R5 R6</t>
+  </si>
+  <si>
+    <t>10K</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>Resistor, small symbol</t>
-  </si>
-  <si>
-    <t>R_Small</t>
-  </si>
-  <si>
-    <t>R1 R2 R3 R4 R5 R6</t>
-  </si>
-  <si>
-    <t>10K</t>
+    <t>R8 R9</t>
+  </si>
+  <si>
+    <t>15k</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>R8 R9</t>
-  </si>
-  <si>
-    <t>15k</t>
+    <t>8-bit magnitude comparator</t>
+  </si>
+  <si>
+    <t>74HCT688</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>SOIC-20W_7.5x12.8mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/lit/ds/symlink/cd54hc688.pdf</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>8-bit magnitude comparator</t>
-  </si>
-  <si>
-    <t>74HCT688</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>SOIC-20W_7.5x12.8mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>https://www.ti.com/lit/ds/symlink/cd54hc688.pdf</t>
+    <t>Quad Low-Noise JFET-Input Operational Amplifiers, DIP-14/SOIC-14</t>
+  </si>
+  <si>
+    <t>TL074</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>SOIC-14_3.9x8.7mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>http://www.ti.com/lit/ds/symlink/tl071.pdf</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>Quad Low-Noise JFET-Input Operational Amplifiers, DIP-14/SOIC-14</t>
-  </si>
-  <si>
-    <t>TL074</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>SOIC-14_3.9x8.7mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>http://www.ti.com/lit/ds/symlink/tl071.pdf</t>
+    <t>YAC512</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>SOP-16_4.55x10.3mm_P1.27mm</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>YAC512</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>SOP-16_4.55x10.3mm_P1.27mm</t>
+    <t>YMF262</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>SOP-24_7.5x15.4mm_P1.27mm</t>
   </si>
   <si>
     <t>22</t>
-  </si>
-  <si>
-    <t>YMF262</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>SOP-24_7.5x15.4mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>23</t>
   </si>
   <si>
     <t>3.3V HCMOS SMD Crystal Clock Oscillator, Abracon</t>
@@ -964,7 +955,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -993,7 +984,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1011,55 +1002,55 @@
     </row>
     <row r="2" spans="1:16">
       <c r="C2" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F2" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="C3" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="C4" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="C5" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1067,13 +1058,13 @@
     </row>
     <row r="6" spans="1:16">
       <c r="C6" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F6" s="3">
         <v>40</v>
@@ -1434,22 +1425,22 @@
         <v>40</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>22</v>
@@ -1481,22 +1472,22 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>42</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>46</v>
       </c>
       <c r="E16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>47</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>48</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>25</v>
@@ -1529,24 +1520,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" ht="30" customHeight="1">
       <c r="A17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="C17" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>16</v>
@@ -1557,46 +1548,46 @@
       <c r="I17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="P17" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="30" customHeight="1">
+      <c r="J17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="45" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>16</v>
@@ -1607,46 +1598,46 @@
       <c r="I18" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="45" customHeight="1">
+      <c r="J18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>16</v>
@@ -1681,22 +1672,22 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C20" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>74</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>16</v>
@@ -1729,24 +1720,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>16</v>
@@ -1779,24 +1770,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="30" customHeight="1">
+    <row r="22" spans="1:16">
       <c r="A22" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>16</v>
@@ -1831,25 +1822,25 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="G23" s="5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>22</v>
@@ -1884,22 +1875,22 @@
         <v>90</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C24" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>89</v>
-      </c>
       <c r="G24" s="9" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>22</v>
@@ -1931,13 +1922,13 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>96</v>
@@ -1946,10 +1937,10 @@
         <v>97</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>22</v>
@@ -1984,28 +1975,28 @@
         <v>98</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>100</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="12" t="s">
-        <v>23</v>
+      <c r="I26" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="J26" s="12" t="s">
         <v>24</v>
@@ -2029,24 +2020,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>16</v>
@@ -2055,7 +2046,7 @@
         <v>22</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>24</v>
@@ -2079,24 +2070,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="30" customHeight="1">
+    <row r="28" spans="1:16">
       <c r="A28" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>16</v>
@@ -2104,8 +2095,8 @@
       <c r="H28" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="11" t="s">
-        <v>112</v>
+      <c r="I28" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="J28" s="12" t="s">
         <v>24</v>
@@ -2131,22 +2122,22 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="F29" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>16</v>
@@ -2181,22 +2172,22 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>24</v>
+        <v>118</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>16</v>
@@ -2204,8 +2195,8 @@
       <c r="H30" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I30" s="12" t="s">
-        <v>24</v>
+      <c r="I30" s="11" t="s">
+        <v>124</v>
       </c>
       <c r="J30" s="12" t="s">
         <v>24</v>
@@ -2226,56 +2217,6 @@
         <v>24</v>
       </c>
       <c r="P30" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M31" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N31" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O31" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="P31" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2302,27 +2243,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Generic/rcbus-ymf262-bom.xlsx
+++ b/BoM/Generic/rcbus-ymf262-bom.xlsx
@@ -413,13 +413,13 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>@version@</t>
+    <t>0.0.1</t>
   </si>
   <si>
     <t>Date:</t>
   </si>
   <si>
-    <t>@date@</t>
+    <t>${DATE}</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/BoM/Generic/rcbus-ymf262-bom.xlsx
+++ b/BoM/Generic/rcbus-ymf262-bom.xlsx
@@ -143,6 +143,9 @@
     <t>7</t>
   </si>
   <si>
+    <t>Polarized capacitor, small symbol</t>
+  </si>
+  <si>
     <t>C_Polarized_Small</t>
   </si>
   <si>
@@ -153,9 +156,6 @@
   </si>
   <si>
     <t>8</t>
-  </si>
-  <si>
-    <t>Polarized capacitor, small symbol</t>
   </si>
   <si>
     <t>C4 C5</t>
@@ -1425,16 +1425,16 @@
         <v>40</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>21</v>
@@ -1472,19 +1472,19 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>46</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>47</v>

--- a/BoM/Generic/rcbus-ymf262-bom.xlsx
+++ b/BoM/Generic/rcbus-ymf262-bom.xlsx
@@ -419,7 +419,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2025-09-02</t>
+    <t>2025-09-03</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/BoM/Generic/rcbus-ymf262-bom.xlsx
+++ b/BoM/Generic/rcbus-ymf262-bom.xlsx
@@ -419,7 +419,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2025-09-03</t>
+    <t>2025-09-11</t>
   </si>
   <si>
     <t>KiCad Version:</t>
